--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Rln1-Rxfp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Rln1-Rxfp1.xlsx
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.769158</v>
+        <v>1.212696</v>
       </c>
       <c r="H2">
-        <v>2.307474</v>
+        <v>3.638088</v>
       </c>
       <c r="I2">
-        <v>0.1346397612061805</v>
+        <v>0.1802717240630916</v>
       </c>
       <c r="J2">
-        <v>0.1346397612061805</v>
+        <v>0.1802717240630916</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.07963000000000001</v>
+        <v>0.029119</v>
       </c>
       <c r="N2">
-        <v>0.23889</v>
+        <v>0.087357</v>
       </c>
       <c r="O2">
-        <v>0.4826869960013498</v>
+        <v>0.4059019501247578</v>
       </c>
       <c r="P2">
-        <v>0.4826869960013498</v>
+        <v>0.4059019501247578</v>
       </c>
       <c r="Q2">
-        <v>0.06124805154000001</v>
+        <v>0.035312494824</v>
       </c>
       <c r="R2">
-        <v>0.55123246386</v>
+        <v>0.317812453416</v>
       </c>
       <c r="S2">
-        <v>0.06498886187895032</v>
+        <v>0.0731726443495611</v>
       </c>
       <c r="T2">
-        <v>0.06498886187895032</v>
+        <v>0.07317264434956113</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.769158</v>
+        <v>1.212696</v>
       </c>
       <c r="H3">
-        <v>2.307474</v>
+        <v>3.638088</v>
       </c>
       <c r="I3">
-        <v>0.1346397612061805</v>
+        <v>0.1802717240630916</v>
       </c>
       <c r="J3">
-        <v>0.1346397612061805</v>
+        <v>0.1802717240630916</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,28 +623,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.029119</v>
+        <v>0.04229766666666667</v>
       </c>
       <c r="N3">
-        <v>0.08735699999999999</v>
+        <v>0.126893</v>
       </c>
       <c r="O3">
-        <v>0.1765083842341241</v>
+        <v>0.5896049103927664</v>
       </c>
       <c r="P3">
-        <v>0.1765083842341241</v>
+        <v>0.5896049103927664</v>
       </c>
       <c r="Q3">
-        <v>0.022397111802</v>
+        <v>0.05129421117600001</v>
       </c>
       <c r="R3">
-        <v>0.201574006218</v>
+        <v>0.4616479005840001</v>
       </c>
       <c r="S3">
-        <v>0.02376504670417122</v>
+        <v>0.1062890937125686</v>
       </c>
       <c r="T3">
-        <v>0.02376504670417122</v>
+        <v>0.1062890937125687</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.769158</v>
+        <v>1.212696</v>
       </c>
       <c r="H4">
-        <v>2.307474</v>
+        <v>3.638088</v>
       </c>
       <c r="I4">
-        <v>0.1346397612061805</v>
+        <v>0.1802717240630916</v>
       </c>
       <c r="J4">
-        <v>0.1346397612061805</v>
+        <v>0.1802717240630916</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.05622333333333333</v>
+        <v>0.0003223333333333333</v>
       </c>
       <c r="N4">
-        <v>0.16867</v>
+        <v>0.000967</v>
       </c>
       <c r="O4">
-        <v>0.3408046197645261</v>
+        <v>0.004493139482475827</v>
       </c>
       <c r="P4">
-        <v>0.3408046197645261</v>
+        <v>0.004493139482475827</v>
       </c>
       <c r="Q4">
-        <v>0.04324462662</v>
+        <v>0.000390892344</v>
       </c>
       <c r="R4">
-        <v>0.38920163958</v>
+        <v>0.003518031096</v>
       </c>
       <c r="S4">
-        <v>0.04588585262305894</v>
+        <v>0.0008099860009618642</v>
       </c>
       <c r="T4">
-        <v>0.04588585262305894</v>
+        <v>0.0008099860009618647</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -735,40 +735,40 @@
         <v>7.419369</v>
       </c>
       <c r="I5">
-        <v>0.4329158510390747</v>
+        <v>0.3676388369633322</v>
       </c>
       <c r="J5">
-        <v>0.4329158510390748</v>
+        <v>0.3676388369633324</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.07963000000000001</v>
+        <v>0.029119</v>
       </c>
       <c r="N5">
-        <v>0.23889</v>
+        <v>0.087357</v>
       </c>
       <c r="O5">
-        <v>0.4826869960013498</v>
+        <v>0.4059019501247578</v>
       </c>
       <c r="P5">
-        <v>0.4826869960013498</v>
+        <v>0.4059019501247578</v>
       </c>
       <c r="Q5">
-        <v>0.19693478449</v>
+        <v>0.072014868637</v>
       </c>
       <c r="R5">
-        <v>1.77241306041</v>
+        <v>0.6481338177330001</v>
       </c>
       <c r="S5">
-        <v>0.2089628516594188</v>
+        <v>0.1492253208650144</v>
       </c>
       <c r="T5">
-        <v>0.2089628516594188</v>
+        <v>0.1492253208650145</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -797,10 +797,10 @@
         <v>7.419369</v>
       </c>
       <c r="I6">
-        <v>0.4329158510390747</v>
+        <v>0.3676388369633322</v>
       </c>
       <c r="J6">
-        <v>0.4329158510390748</v>
+        <v>0.3676388369633324</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -809,28 +809,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.029119</v>
+        <v>0.04229766666666667</v>
       </c>
       <c r="N6">
-        <v>0.08735699999999999</v>
+        <v>0.126893</v>
       </c>
       <c r="O6">
-        <v>0.1765083842341241</v>
+        <v>0.5896049103927664</v>
       </c>
       <c r="P6">
-        <v>0.1765083842341241</v>
+        <v>0.5896049103927664</v>
       </c>
       <c r="Q6">
-        <v>0.07201486863699998</v>
+        <v>0.1046073322796667</v>
       </c>
       <c r="R6">
-        <v>0.6481338177329999</v>
+        <v>0.941465990517</v>
       </c>
       <c r="S6">
-        <v>0.07641327737624781</v>
+        <v>0.2167616635246664</v>
       </c>
       <c r="T6">
-        <v>0.07641327737624784</v>
+        <v>0.2167616635246664</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,40 +859,40 @@
         <v>7.419369</v>
       </c>
       <c r="I7">
-        <v>0.4329158510390747</v>
+        <v>0.3676388369633322</v>
       </c>
       <c r="J7">
-        <v>0.4329158510390748</v>
+        <v>0.3676388369633324</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.05622333333333333</v>
+        <v>0.0003223333333333333</v>
       </c>
       <c r="N7">
-        <v>0.16867</v>
+        <v>0.000967</v>
       </c>
       <c r="O7">
-        <v>0.3408046197645261</v>
+        <v>0.004493139482475827</v>
       </c>
       <c r="P7">
-        <v>0.3408046197645261</v>
+        <v>0.004493139482475827</v>
       </c>
       <c r="Q7">
-        <v>0.1390472188033333</v>
+        <v>0.0007971699803333332</v>
       </c>
       <c r="R7">
-        <v>1.25142496923</v>
+        <v>0.007174529823</v>
       </c>
       <c r="S7">
-        <v>0.1475397220034081</v>
+        <v>0.001651852573651441</v>
       </c>
       <c r="T7">
-        <v>0.1475397220034081</v>
+        <v>0.001651852573651442</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1491126666666667</v>
+        <v>0.3159016666666667</v>
       </c>
       <c r="H8">
-        <v>0.447338</v>
+        <v>0.947705</v>
       </c>
       <c r="I8">
-        <v>0.02610191122346356</v>
+        <v>0.04695994551347087</v>
       </c>
       <c r="J8">
-        <v>0.02610191122346356</v>
+        <v>0.04695994551347088</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.07963000000000001</v>
+        <v>0.029119</v>
       </c>
       <c r="N8">
-        <v>0.23889</v>
+        <v>0.087357</v>
       </c>
       <c r="O8">
-        <v>0.4826869960013498</v>
+        <v>0.4059019501247578</v>
       </c>
       <c r="P8">
-        <v>0.4826869960013498</v>
+        <v>0.4059019501247578</v>
       </c>
       <c r="Q8">
-        <v>0.01187384164666667</v>
+        <v>0.009198740631666669</v>
       </c>
       <c r="R8">
-        <v>0.10686457482</v>
+        <v>0.08278866568500001</v>
       </c>
       <c r="S8">
-        <v>0.01259905311834754</v>
+        <v>0.0190611334616702</v>
       </c>
       <c r="T8">
-        <v>0.01259905311834754</v>
+        <v>0.0190611334616702</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1491126666666667</v>
+        <v>0.3159016666666667</v>
       </c>
       <c r="H9">
-        <v>0.447338</v>
+        <v>0.947705</v>
       </c>
       <c r="I9">
-        <v>0.02610191122346356</v>
+        <v>0.04695994551347087</v>
       </c>
       <c r="J9">
-        <v>0.02610191122346356</v>
+        <v>0.04695994551347088</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -995,28 +995,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.029119</v>
+        <v>0.04229766666666667</v>
       </c>
       <c r="N9">
-        <v>0.08735699999999999</v>
+        <v>0.126893</v>
       </c>
       <c r="O9">
-        <v>0.1765083842341241</v>
+        <v>0.5896049103927664</v>
       </c>
       <c r="P9">
-        <v>0.1765083842341241</v>
+        <v>0.5896049103927664</v>
       </c>
       <c r="Q9">
-        <v>0.004342011740666666</v>
+        <v>0.01336190339611111</v>
       </c>
       <c r="R9">
-        <v>0.039078105666</v>
+        <v>0.120257130565</v>
       </c>
       <c r="S9">
-        <v>0.004607206175476102</v>
+        <v>0.02768781446651918</v>
       </c>
       <c r="T9">
-        <v>0.004607206175476102</v>
+        <v>0.02768781446651919</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1491126666666667</v>
+        <v>0.3159016666666667</v>
       </c>
       <c r="H10">
-        <v>0.447338</v>
+        <v>0.947705</v>
       </c>
       <c r="I10">
-        <v>0.02610191122346356</v>
+        <v>0.04695994551347087</v>
       </c>
       <c r="J10">
-        <v>0.02610191122346356</v>
+        <v>0.04695994551347088</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.05622333333333333</v>
+        <v>0.0003223333333333333</v>
       </c>
       <c r="N10">
-        <v>0.16867</v>
+        <v>0.000967</v>
       </c>
       <c r="O10">
-        <v>0.3408046197645261</v>
+        <v>0.004493139482475827</v>
       </c>
       <c r="P10">
-        <v>0.3408046197645261</v>
+        <v>0.004493139482475827</v>
       </c>
       <c r="Q10">
-        <v>0.008383611162222221</v>
+        <v>0.0001018256372222222</v>
       </c>
       <c r="R10">
-        <v>0.07545250046</v>
+        <v>0.000916430735</v>
       </c>
       <c r="S10">
-        <v>0.008895651929639916</v>
+        <v>0.0002109975852814895</v>
       </c>
       <c r="T10">
-        <v>0.008895651929639916</v>
+        <v>0.0002109975852814896</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.2134013333333333</v>
+        <v>0.1812183333333333</v>
       </c>
       <c r="H11">
-        <v>0.640204</v>
+        <v>0.543655</v>
       </c>
       <c r="I11">
-        <v>0.03735552976252021</v>
+        <v>0.02693877227420559</v>
       </c>
       <c r="J11">
-        <v>0.03735552976252021</v>
+        <v>0.02693877227420559</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.07963000000000001</v>
+        <v>0.029119</v>
       </c>
       <c r="N11">
-        <v>0.23889</v>
+        <v>0.087357</v>
       </c>
       <c r="O11">
-        <v>0.4826869960013498</v>
+        <v>0.4059019501247578</v>
       </c>
       <c r="P11">
-        <v>0.4826869960013498</v>
+        <v>0.4059019501247578</v>
       </c>
       <c r="Q11">
-        <v>0.01699314817333333</v>
+        <v>0.005276896648333334</v>
       </c>
       <c r="R11">
-        <v>0.15293833356</v>
+        <v>0.047492069835</v>
       </c>
       <c r="S11">
-        <v>0.0180310284451099</v>
+        <v>0.0109345002000668</v>
       </c>
       <c r="T11">
-        <v>0.0180310284451099</v>
+        <v>0.01093450020006681</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.2134013333333333</v>
+        <v>0.1812183333333333</v>
       </c>
       <c r="H12">
-        <v>0.640204</v>
+        <v>0.543655</v>
       </c>
       <c r="I12">
-        <v>0.03735552976252021</v>
+        <v>0.02693877227420559</v>
       </c>
       <c r="J12">
-        <v>0.03735552976252021</v>
+        <v>0.02693877227420559</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.029119</v>
+        <v>0.04229766666666667</v>
       </c>
       <c r="N12">
-        <v>0.08735699999999999</v>
+        <v>0.126893</v>
       </c>
       <c r="O12">
-        <v>0.1765083842341241</v>
+        <v>0.5896049103927664</v>
       </c>
       <c r="P12">
-        <v>0.1765083842341241</v>
+        <v>0.5896049103927664</v>
       </c>
       <c r="Q12">
-        <v>0.006214033425333333</v>
+        <v>0.007665112657222224</v>
       </c>
       <c r="R12">
-        <v>0.05592630082799999</v>
+        <v>0.06898601391500001</v>
       </c>
       <c r="S12">
-        <v>0.006593564200592175</v>
+        <v>0.01588323241282412</v>
       </c>
       <c r="T12">
-        <v>0.006593564200592176</v>
+        <v>0.01588323241282413</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.2134013333333333</v>
+        <v>0.1812183333333333</v>
       </c>
       <c r="H13">
-        <v>0.640204</v>
+        <v>0.543655</v>
       </c>
       <c r="I13">
-        <v>0.03735552976252021</v>
+        <v>0.02693877227420559</v>
       </c>
       <c r="J13">
-        <v>0.03735552976252021</v>
+        <v>0.02693877227420559</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.05622333333333333</v>
+        <v>0.0003223333333333333</v>
       </c>
       <c r="N13">
-        <v>0.16867</v>
+        <v>0.000967</v>
       </c>
       <c r="O13">
-        <v>0.3408046197645261</v>
+        <v>0.004493139482475827</v>
       </c>
       <c r="P13">
-        <v>0.3408046197645261</v>
+        <v>0.004493139482475827</v>
       </c>
       <c r="Q13">
-        <v>0.01199813429777778</v>
+        <v>5.841270944444444E-05</v>
       </c>
       <c r="R13">
-        <v>0.10798320868</v>
+        <v>0.000525714385</v>
       </c>
       <c r="S13">
-        <v>0.01273093711681814</v>
+        <v>0.0001210396613146582</v>
       </c>
       <c r="T13">
-        <v>0.01273093711681814</v>
+        <v>0.0001210396613146583</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.009686666666667</v>
+        <v>2.500729666666667</v>
       </c>
       <c r="H14">
-        <v>6.02906</v>
+        <v>7.502189</v>
       </c>
       <c r="I14">
-        <v>0.3517921323047343</v>
+        <v>0.3717426695773057</v>
       </c>
       <c r="J14">
-        <v>0.3517921323047343</v>
+        <v>0.3717426695773058</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.07963000000000001</v>
+        <v>0.029119</v>
       </c>
       <c r="N14">
-        <v>0.23889</v>
+        <v>0.087357</v>
       </c>
       <c r="O14">
-        <v>0.4826869960013498</v>
+        <v>0.4059019501247578</v>
       </c>
       <c r="P14">
-        <v>0.4826869960013498</v>
+        <v>0.4059019501247578</v>
       </c>
       <c r="Q14">
-        <v>0.1600313492666667</v>
+        <v>0.07281874716366668</v>
       </c>
       <c r="R14">
-        <v>1.4402821434</v>
+        <v>0.6553687244730001</v>
       </c>
       <c r="S14">
-        <v>0.1698054875590816</v>
+        <v>0.1508910745260119</v>
       </c>
       <c r="T14">
-        <v>0.1698054875590816</v>
+        <v>0.1508910745260119</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.009686666666667</v>
+        <v>2.500729666666667</v>
       </c>
       <c r="H15">
-        <v>6.02906</v>
+        <v>7.502189</v>
       </c>
       <c r="I15">
-        <v>0.3517921323047343</v>
+        <v>0.3717426695773057</v>
       </c>
       <c r="J15">
-        <v>0.3517921323047343</v>
+        <v>0.3717426695773058</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,28 +1367,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.029119</v>
+        <v>0.04229766666666667</v>
       </c>
       <c r="N15">
-        <v>0.08735699999999999</v>
+        <v>0.126893</v>
       </c>
       <c r="O15">
-        <v>0.1765083842341241</v>
+        <v>0.5896049103927664</v>
       </c>
       <c r="P15">
-        <v>0.1765083842341241</v>
+        <v>0.5896049103927664</v>
       </c>
       <c r="Q15">
-        <v>0.05852006604666666</v>
+        <v>0.1057750298641111</v>
       </c>
       <c r="R15">
-        <v>0.5266805944199999</v>
+        <v>0.9519752687770001</v>
       </c>
       <c r="S15">
-        <v>0.06209426085938585</v>
+        <v>0.2191813033852951</v>
       </c>
       <c r="T15">
-        <v>0.06209426085938587</v>
+        <v>0.2191813033852952</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.009686666666667</v>
+        <v>2.500729666666667</v>
       </c>
       <c r="H16">
-        <v>6.02906</v>
+        <v>7.502189</v>
       </c>
       <c r="I16">
-        <v>0.3517921323047343</v>
+        <v>0.3717426695773057</v>
       </c>
       <c r="J16">
-        <v>0.3517921323047343</v>
+        <v>0.3717426695773058</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.05622333333333333</v>
+        <v>0.0003223333333333333</v>
       </c>
       <c r="N16">
-        <v>0.16867</v>
+        <v>0.000967</v>
       </c>
       <c r="O16">
-        <v>0.3408046197645261</v>
+        <v>0.004493139482475827</v>
       </c>
       <c r="P16">
-        <v>0.3408046197645261</v>
+        <v>0.004493139482475827</v>
       </c>
       <c r="Q16">
-        <v>0.1129912833555555</v>
+        <v>0.0008060685292222223</v>
       </c>
       <c r="R16">
-        <v>1.0169215502</v>
+        <v>0.007254616763</v>
       </c>
       <c r="S16">
-        <v>0.1198923838862668</v>
+        <v>0.001670291665998758</v>
       </c>
       <c r="T16">
-        <v>0.1198923838862669</v>
+        <v>0.001670291665998758</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.098229</v>
+        <v>0.04337633333333333</v>
       </c>
       <c r="H17">
-        <v>0.294687</v>
+        <v>0.130129</v>
       </c>
       <c r="I17">
-        <v>0.01719481446402677</v>
+        <v>0.006448051608593866</v>
       </c>
       <c r="J17">
-        <v>0.01719481446402677</v>
+        <v>0.006448051608593868</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.07963000000000001</v>
+        <v>0.029119</v>
       </c>
       <c r="N17">
-        <v>0.23889</v>
+        <v>0.087357</v>
       </c>
       <c r="O17">
-        <v>0.4826869960013498</v>
+        <v>0.4059019501247578</v>
       </c>
       <c r="P17">
-        <v>0.4826869960013498</v>
+        <v>0.4059019501247578</v>
       </c>
       <c r="Q17">
-        <v>0.00782197527</v>
+        <v>0.001263075450333333</v>
       </c>
       <c r="R17">
-        <v>0.07039777743</v>
+        <v>0.011367679053</v>
       </c>
       <c r="S17">
-        <v>0.00829971334044164</v>
+        <v>0.002617276722433332</v>
       </c>
       <c r="T17">
-        <v>0.00829971334044164</v>
+        <v>0.002617276722433333</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.098229</v>
+        <v>0.04337633333333333</v>
       </c>
       <c r="H18">
-        <v>0.294687</v>
+        <v>0.130129</v>
       </c>
       <c r="I18">
-        <v>0.01719481446402677</v>
+        <v>0.006448051608593866</v>
       </c>
       <c r="J18">
-        <v>0.01719481446402677</v>
+        <v>0.006448051608593868</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1553,28 +1553,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>0.029119</v>
+        <v>0.04229766666666667</v>
       </c>
       <c r="N18">
-        <v>0.08735699999999999</v>
+        <v>0.126893</v>
       </c>
       <c r="O18">
-        <v>0.1765083842341241</v>
+        <v>0.5896049103927664</v>
       </c>
       <c r="P18">
-        <v>0.1765083842341241</v>
+        <v>0.5896049103927664</v>
       </c>
       <c r="Q18">
-        <v>0.002860330250999999</v>
+        <v>0.001834717688555555</v>
       </c>
       <c r="R18">
-        <v>0.02574297225899999</v>
+        <v>0.016512459197</v>
       </c>
       <c r="S18">
-        <v>0.003035028918250911</v>
+        <v>0.00380180289089292</v>
       </c>
       <c r="T18">
-        <v>0.003035028918250911</v>
+        <v>0.003801802890892921</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.098229</v>
+        <v>0.04337633333333333</v>
       </c>
       <c r="H19">
-        <v>0.294687</v>
+        <v>0.130129</v>
       </c>
       <c r="I19">
-        <v>0.01719481446402677</v>
+        <v>0.006448051608593866</v>
       </c>
       <c r="J19">
-        <v>0.01719481446402677</v>
+        <v>0.006448051608593868</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.05622333333333333</v>
+        <v>0.0003223333333333333</v>
       </c>
       <c r="N19">
-        <v>0.16867</v>
+        <v>0.000967</v>
       </c>
       <c r="O19">
-        <v>0.3408046197645261</v>
+        <v>0.004493139482475827</v>
       </c>
       <c r="P19">
-        <v>0.3408046197645261</v>
+        <v>0.004493139482475827</v>
       </c>
       <c r="Q19">
-        <v>0.00552276181</v>
+        <v>1.398163811111111E-05</v>
       </c>
       <c r="R19">
-        <v>0.04970485628999999</v>
+        <v>0.000125834743</v>
       </c>
       <c r="S19">
-        <v>0.005860072205334217</v>
+        <v>2.897199526761487E-05</v>
       </c>
       <c r="T19">
-        <v>0.005860072205334217</v>
+        <v>2.897199526761488E-05</v>
       </c>
     </row>
   </sheetData>
